--- a/Teste da Loja de Cupcakes - Gabriel Ribeiro (respostas).xlsx
+++ b/Teste da Loja de Cupcakes - Gabriel Ribeiro (respostas).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Loja-Virtual-Cupcake\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58773CE8-10DB-49CB-A332-0826DDC9F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -85,43 +94,53 @@
     <t>https://drive.google.com/open?id=1fzzsXUz2vJVrl7rA2itIYHdzsiVj2ZWI, https://drive.google.com/open?id=1Wj5CaY-g24XlwKyLCM9xiuScWTXdSqBW, https://drive.google.com/open?id=1xyo1BeUVWIv7r_PtDzxgy7qHPs5aynVM</t>
   </si>
   <si>
-    <t>ademir.ae86@gmail.com</t>
-  </si>
-  <si>
     <t>Carrinho de Compras, Painel de Cadastro Novo Cupcake</t>
   </si>
   <si>
-    <t>Validação do tipo de image, tentei cadastrar um produto com a extensão .webp na imagem e retornou para a lista, sem ter cadastrado e sem nenhuma mensagem de erro.</t>
+    <t>No Cadastro de Imagem do Produto não está aparecendo na página principal a Imagem inserida no Cadastro de Cupcake</t>
+  </si>
+  <si>
+    <t>lidiasamira55@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +148,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -147,6 +172,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -161,6 +187,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -175,266 +202,267 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Respostas ao formulário 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G6" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G6">
   <tableColumns count="7">
-    <tableColumn name="Carimbo de data/hora" id="1"/>
-    <tableColumn name="Endereço de e-mail" id="2"/>
-    <tableColumn name="Selecione o que testou e funcionou? Pode marcar mais de uma opção.*" id="3"/>
-    <tableColumn name="Selecione o que testou e NÃO funcionou para a correção? Pode marcar mais de uma opção." id="4"/>
-    <tableColumn name="Descreva em sua opinião: Oque achou do Site / Oque pode ser Corrigido:" id="5"/>
-    <tableColumn name="Caso tenha alguma sugestão de melhoria, favor informar neste campo ou descrever oque poderia ser incluído no Site:" id="6"/>
-    <tableColumn name="Anexo de capturas de tela para informar o erro ou melhoria:" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selecione o que testou e funcionou? Pode marcar mais de uma opção.*"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Selecione o que testou e NÃO funcionou para a correção? Pode marcar mais de uma opção."/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descreva em sua opinião: Oque achou do Site / Oque pode ser Corrigido:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Caso tenha alguma sugestão de melhoria, favor informar neste campo ou descrever oque poderia ser incluído no Site:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Anexo de capturas de tela para informar o erro ou melhoria:"/>
   </tableColumns>
-  <tableStyleInfo name="Respostas ao formulário 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -624,32 +652,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.75"/>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="4" width="37.63"/>
-    <col customWidth="1" min="5" max="5" width="42.25"/>
-    <col customWidth="1" min="6" max="7" width="37.63"/>
-    <col customWidth="1" min="8" max="13" width="18.88"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,11 +703,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45617.359204293985</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -695,95 +726,99 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>45617.52215224537</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>45617.522152245372</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>45617.60489524306</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>45617.604895243057</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45617.60836888889</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="14">
-        <v>45617.70315054398</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>45617.95175925926</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{11E5D90D-4D4B-4CFA-9134-B54E72859FDD}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A430AD82-FC72-4FC7-A627-7B115B22E5C3}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{903ADB52-079A-479E-B6B9-B816BBC4DDC1}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{3B94E2F8-EBBA-433B-A433-3F8A6FDD31F0}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{73D9E326-FE94-452B-8A8E-F826582A88DC}"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId3"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>